--- a/Biotech/Proteins.xlsx
+++ b/Biotech/Proteins.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_mine_models\Biotech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA327EE1-2379-4BC7-888E-4E1021E359EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D492FF-AEDA-421B-B6A5-45CE8869857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27180" yWindow="2145" windowWidth="27045" windowHeight="17700" xr2:uid="{D867214F-0D91-E949-AC0B-08C9AC8BF8C2}"/>
+    <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28320" activeTab="1" xr2:uid="{D867214F-0D91-E949-AC0B-08C9AC8BF8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="AminoAcids" sheetId="3" r:id="rId2"/>
+    <sheet name="helper" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="164">
   <si>
     <t>Protein</t>
   </si>
@@ -444,13 +446,97 @@
   </si>
   <si>
     <t>FLT3</t>
+  </si>
+  <si>
+    <t>AminoAcid</t>
+  </si>
+  <si>
+    <t>Essential</t>
+  </si>
+  <si>
+    <t>Histidine</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>Tryptophan</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>Aspartic Acid</t>
+  </si>
+  <si>
+    <t>Cysteine</t>
+  </si>
+  <si>
+    <t>Glutamic Acid</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenocystine </t>
+  </si>
+  <si>
+    <t>pyrrolysine</t>
+  </si>
+  <si>
+    <t>Not human</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>22nd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,6 +547,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -485,10 +577,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -829,11 +931,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E978AA-4292-EB41-87A5-183B404F3808}">
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2328,4 +2430,287 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE003A4-701B-468C-B70C-7091001A5F59}">
+  <dimension ref="A3:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <f>+COUNTA(B4:B22)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8A84A5-78AA-43FF-87D9-97A90ED913EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>